--- a/biology/Histoire de la zoologie et de la botanique/Ford_Doolittle/Ford_Doolittle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ford_Doolittle/Ford_Doolittle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le docteur W. Ford Doolittle (né le 30 novembre 1941 à Urbana dans l'Illinois)[1] est un biochimiste américain.
-En 2014, il est professeur émérite de biochimie à l'université Dalhousie, à Halifax (Nouvelle-Écosse), au Canada[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le docteur W. Ford Doolittle (né le 30 novembre 1941 à Urbana dans l'Illinois) est un biochimiste américain.
+En 2014, il est professeur émérite de biochimie à l'université Dalhousie, à Halifax (Nouvelle-Écosse), au Canada.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il reçoit son BA en sciences biochimiques à l'Université Harvard en 1963 puis son PhD (philosophiæ doctor, doctorat) à l'Université Stanford en 1967.
 Depuis son arrivée à l'université Dalhousie, en 1971, au sein du département de biochimie et biologie moléculaire à la Faculté de Médecine, le Dr Doolittle a réalisé nombre de contributions dans l'étude des cyanobactéries, relevant des preuves accréditant la thèse de l'endosymbiose ainsi que l'hypothèse de l'origine des chloroplastes. Il développa aussi une base théorique concernant les conditions initiales de l'évolution des eucaryotes. Il démontra dans ce cadre l'importance des transferts horizontaux de gènes dans l'évolution des procaryotes.
